--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,26 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진척도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pri</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,10 +305,6 @@
   </si>
   <si>
     <t>chatID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -399,26 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[title]B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[worker]user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[priority]urgent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[due]180506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[status]message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +448,30 @@
   </si>
   <si>
     <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urgent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +825,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -863,35 +839,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -919,7 +895,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -936,140 +912,140 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1080,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1119,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q4" t="s">
         <v>30</v>
@@ -1136,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1159,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1173,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1208,7 +1184,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1224,62 +1200,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1293,53 +1269,53 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>180506</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1329,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1365,56 +1341,56 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1445,7 +1421,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1461,64 +1437,64 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1527,7 +1503,7 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -1541,16 +1517,16 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1559,7 +1535,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1567,7 +1543,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1575,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1583,15 +1559,15 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
   </si>
   <si>
     <t>Work ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동작타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,14 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,6 +460,10 @@
   </si>
   <si>
     <t>urgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,35 +831,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -912,140 +904,140 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>70</v>
-      </c>
-      <c r="R1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="49.5">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1056,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1095,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
         <v>30</v>
@@ -1112,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1135,7 +1127,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1149,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1181,84 +1173,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="12" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="11" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1266,55 +1249,37 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9">
         <v>180506</v>
       </c>
     </row>
@@ -1341,56 +1306,56 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1437,64 +1402,64 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1503,7 +1468,7 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -1517,16 +1482,16 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1535,7 +1500,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1543,7 +1508,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1551,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1559,15 +1524,15 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예상시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상소요일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예상종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,15 +268,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>due</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,14 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mainCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,19 +423,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>urgent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(columnname):(data),(columnname):(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title:abc,launch:180412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title:dfg,comment:asdfasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch:180530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainCate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subCate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(260)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,35 +847,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -887,11 +903,12 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
@@ -904,58 +921,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -963,52 +980,52 @@
         <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
         <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
       </c>
       <c r="R2" t="s">
         <v>106</v>
@@ -1016,28 +1033,16 @@
     </row>
     <row r="3" spans="1:18" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1048,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1066,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -1075,25 +1080,25 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1101,22 +1106,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1124,13 +1129,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1138,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1149,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1157,12 +1162,12 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1173,17 +1178,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="11" max="12" width="10.875" customWidth="1"/>
@@ -1192,19 +1197,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1215,72 +1220,67 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="E5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="E6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="E9">
-        <v>180506</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1306,73 +1306,73 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1402,137 +1402,137 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1558,28 +1558,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>접속자들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메시지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,29 +209,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char(50)</t>
-  </si>
-  <si>
-    <t>char(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pri</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>due</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,10 +254,6 @@
   </si>
   <si>
     <t>chatID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(260)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -339,30 +308,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변경 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>히스토리ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chatHistoryID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>visitors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,54 +328,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련Task 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[msg]chat message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[system]message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[add]user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[remove]user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[upfile]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[downfile]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[tasks]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,7 +388,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(260)</t>
+    <t>worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(260)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +778,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -847,35 +792,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -921,128 +875,128 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="49.5">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1053,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1080,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1095,7 +1049,7 @@
         <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -1109,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -1132,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -1146,7 +1100,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1180,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1197,90 +1151,90 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="E5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="E6" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1294,68 +1248,66 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1363,15 +1315,12 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1385,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1402,79 +1351,79 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1482,25 +1431,24 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="C7" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1508,7 +1456,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1516,23 +1464,23 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="C10" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1558,25 +1506,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>변경 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +429,10 @@
   </si>
   <si>
     <t>fileID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -806,16 +814,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -823,13 +831,13 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -875,7 +883,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
@@ -890,10 +898,10 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
         <v>51</v>
@@ -905,19 +913,19 @@
         <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
         <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" t="s">
         <v>57</v>
@@ -931,58 +939,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="49.5">
@@ -1034,13 +1042,13 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
         <v>82</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>81</v>
-      </c>
-      <c r="N4" t="s">
-        <v>80</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1151,7 +1159,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>64</v>
@@ -1163,24 +1171,24 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5">
@@ -1214,27 +1222,27 @@
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="E5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
@@ -1270,30 +1278,30 @@
         <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5">
@@ -1332,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1351,13 +1359,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>65</v>
@@ -1366,27 +1374,27 @@
         <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
@@ -1408,7 +1416,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1417,7 +1425,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -1431,7 +1439,7 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -1440,7 +1448,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1448,7 +1456,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1456,7 +1464,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1464,23 +1472,28 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="taskHistory" sheetId="6" r:id="rId3"/>
     <sheet name="chat" sheetId="4" r:id="rId4"/>
-    <sheet name="charHistory" sheetId="3" r:id="rId5"/>
+    <sheet name="chatHistory" sheetId="3" r:id="rId5"/>
     <sheet name="file" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메세지전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전송자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,26 +170,6 @@
   </si>
   <si>
     <t>파일이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동작 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속자추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속자제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일다운로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변경 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>taskIDs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전송시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,31 +376,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Task 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅방 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,44 +744,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -883,128 +827,128 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1015,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1042,13 +986,13 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1057,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -1071,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -1094,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -1108,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1159,90 +1103,90 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="E5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="E6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1253,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1264,66 +1208,60 @@
     <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1340,161 +1278,93 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="3" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1519,25 +1389,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,50 @@
   </si>
   <si>
     <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -747,7 +791,7 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -1199,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1278,24 +1322,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="4" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1309,10 +1353,13 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1326,10 +1373,13 @@
         <v>86</v>
       </c>
       <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5">
+    <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1342,8 +1392,11 @@
       <c r="D3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1357,14 +1410,44 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visitors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전송시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,22 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,14 +401,42 @@
   </si>
   <si>
     <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +491,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,6 +574,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -595,6 +609,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,14 +785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -786,12 +801,12 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -800,35 +815,35 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -849,14 +864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="12.25" customWidth="1"/>
@@ -869,9 +884,9 @@
     <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -886,10 +901,10 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
       </c>
       <c r="H1" t="s">
         <v>45</v>
@@ -901,19 +916,19 @@
         <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
         <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
         <v>51</v>
@@ -925,63 +940,63 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>87</v>
-      </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="49.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -995,7 +1010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1030,13 +1045,13 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1051,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1099,7 +1114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1107,7 +1122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1127,14 +1142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1"/>
@@ -1145,9 +1160,9 @@
     <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
@@ -1159,27 +1174,27 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="49.5">
+    </row>
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1196,7 +1211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1213,24 +1228,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="E6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="E7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="E8" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1240,21 +1255,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>59</v>
@@ -1265,28 +1280,22 @@
       <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="49.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1321,14 +1330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1339,9 +1348,9 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
@@ -1353,33 +1362,33 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.5">
+    </row>
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1393,10 +1402,10 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1404,49 +1413,65 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
         <v>93</v>
       </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
         <v>95</v>
       </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1456,21 +1481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,14 +429,30 @@
   </si>
   <si>
     <t>delTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무종료시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,20 +469,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -475,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +520,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,7 +614,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -609,7 +648,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -785,14 +823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -801,7 +839,7 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -815,7 +853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -829,7 +867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -843,7 +881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -864,14 +902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="12.25" customWidth="1"/>
@@ -882,9 +920,11 @@
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
     <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -939,8 +979,14 @@
       <c r="R1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -995,8 +1041,14 @@
       <c r="R2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="S2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1009,8 +1061,10 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1119,14 @@
       <c r="R4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1088,8 +1148,10 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1103,7 +1165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1114,7 +1176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1122,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1130,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1142,14 +1204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1"/>
@@ -1160,7 +1222,7 @@
     <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1177,7 +1239,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1194,7 +1256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1211,7 +1273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1228,22 +1290,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="E5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="E6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="E7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="E8" t="s">
         <v>80</v>
       </c>
@@ -1255,19 +1317,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1281,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1295,7 +1357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1309,7 +1371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1330,14 +1392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1348,7 +1410,7 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1368,7 +1430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1388,7 +1450,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1405,7 +1467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1425,7 +1487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="E5" t="s">
         <v>96</v>
       </c>
@@ -1434,7 +1496,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="E6" t="s">
         <v>97</v>
       </c>
@@ -1442,7 +1504,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="E7" t="s">
         <v>98</v>
       </c>
@@ -1450,7 +1512,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
         <v>99</v>
       </c>
@@ -1458,7 +1520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="E9" t="s">
         <v>100</v>
       </c>
@@ -1466,7 +1528,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="E10" t="s">
         <v>101</v>
       </c>
@@ -1481,21 +1543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>32</v>
       </c>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24735" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16440" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -432,27 +432,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>openTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무시작시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업무종료시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +614,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -648,6 +649,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -823,14 +825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -839,7 +841,7 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -853,7 +855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -867,7 +869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -881,7 +883,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -902,14 +904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="12.25" customWidth="1"/>
@@ -924,7 +926,7 @@
     <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -980,13 +982,13 @@
         <v>52</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="49.5">
+    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1064,7 +1066,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1120,13 +1122,13 @@
         <v>15</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1151,7 +1153,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1204,14 +1206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1"/>
@@ -1222,7 +1224,7 @@
     <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1290,22 +1292,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>80</v>
       </c>
@@ -1317,19 +1319,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.5">
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1392,14 +1394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1410,7 +1412,7 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1430,7 +1432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.5">
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>96</v>
       </c>
@@ -1496,7 +1498,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>97</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>98</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>99</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>100</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>101</v>
       </c>
@@ -1543,21 +1545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16440" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16440" windowHeight="12060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변경 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>히스토리ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,22 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(columnname):(data),(columnname):(data)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title:abc,launch:180412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title:dfg,comment:asdfasdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launch:180530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mainCate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,14 +425,46 @@
   </si>
   <si>
     <t>reportDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(260)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"reportMid"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"reportDone"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,7 +626,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -649,7 +660,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -825,14 +835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -841,12 +851,12 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -855,35 +865,35 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -904,14 +914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="12.25" customWidth="1"/>
@@ -926,9 +936,9 @@
     <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -943,10 +953,10 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
         <v>45</v>
@@ -958,19 +968,19 @@
         <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
         <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
         <v>51</v>
@@ -982,75 +992,75 @@
         <v>52</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1066,7 +1076,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1101,13 +1111,13 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1122,13 +1132,13 @@
         <v>15</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1153,7 +1163,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1167,7 +1177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1178,7 +1188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1206,27 +1216,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="11" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="3" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="12" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
@@ -1238,27 +1249,39 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1272,10 +1295,16 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1288,28 +1317,15 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7">
       <c r="E5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="E6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1319,21 +1335,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>59</v>
@@ -1345,21 +1361,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1394,14 +1410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1412,9 +1428,9 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
@@ -1426,33 +1442,33 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1466,76 +1482,76 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" t="s">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1545,21 +1561,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>32</v>
       </c>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16440" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,14 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reportFirst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportDone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>columnName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,19 +444,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>timeFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"예정"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"진행중"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"완료대기"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"완료"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"reportMid"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"reportDone"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"confirmOK"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"confirmNO"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,18 +505,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -534,7 +552,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,6 +644,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -660,6 +679,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,14 +855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -851,7 +871,7 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -865,7 +885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -879,7 +899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -893,7 +913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -914,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:T4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="12.25" customWidth="1"/>
@@ -932,11 +952,12 @@
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
     <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
     <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -992,13 +1013,13 @@
         <v>52</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1060,7 +1081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="49.5">
+    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1076,7 +1097,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1160,10 +1181,13 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1176,8 +1200,11 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="O6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1187,16 +1214,22 @@
       <c r="E7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="O7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="O8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1204,7 +1237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1216,14 +1249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="5" width="12.625" customWidth="1"/>
@@ -1235,7 +1268,7 @@
     <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1249,16 +1282,16 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1272,16 +1305,16 @@
         <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="49.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1295,7 +1328,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -1304,7 +1337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1318,14 +1351,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1335,19 +1378,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1361,7 +1404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1375,7 +1418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.5">
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1389,7 +1432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1410,14 +1453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1428,7 +1471,7 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1448,7 +1491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1468,7 +1511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.5">
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1485,7 +1528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1505,7 +1548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>91</v>
       </c>
@@ -1514,7 +1557,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>92</v>
       </c>
@@ -1522,7 +1565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -1530,7 +1573,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>94</v>
       </c>
@@ -1538,7 +1581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>95</v>
       </c>
@@ -1546,7 +1589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>96</v>
       </c>
@@ -1561,21 +1604,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060" activeTab="2"/>
@@ -487,8 +487,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,7 +644,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -679,7 +678,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -855,14 +853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -871,7 +869,7 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -885,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -899,7 +897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -913,7 +911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -934,14 +932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="4" width="12.25" customWidth="1"/>
@@ -957,7 +955,7 @@
     <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1097,7 +1095,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1187,7 +1185,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1218,7 +1216,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1229,7 +1227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1237,7 +1235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1249,14 +1247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="3" max="5" width="12.625" customWidth="1"/>
@@ -1268,7 +1266,7 @@
     <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1314,7 +1312,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1351,22 +1349,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="E5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="E6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="E7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>114</v>
       </c>
@@ -1378,19 +1376,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1453,14 +1451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -1471,7 +1469,7 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="E5" t="s">
         <v>91</v>
       </c>
@@ -1557,7 +1555,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="E6" t="s">
         <v>92</v>
       </c>
@@ -1565,7 +1563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
         <v>94</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="E9" t="s">
         <v>95</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="E10" t="s">
         <v>96</v>
       </c>
@@ -1604,21 +1602,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>32</v>
       </c>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,10 @@
   </si>
   <si>
     <t>"confirmNO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -891,7 +895,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -935,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1025,7 +1029,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1052,13 +1056,13 @@
         <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
         <v>80</v>
@@ -1072,11 +1076,11 @@
       <c r="R2" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>80</v>
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="49.5">
@@ -1092,8 +1096,6 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
@@ -1182,8 +1184,6 @@
       <c r="O5" t="s">
         <v>107</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1297,7 +1297,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1407,7 +1407,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1497,7 +1497,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -860,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1454,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/IWAS/workingsheet.xlsx
+++ b/IWAS/workingsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14385" windowHeight="12060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
   <si>
     <t>registData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,10 +481,6 @@
   </si>
   <si>
     <t>"confirmNO"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +857,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -895,7 +891,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -940,7 +936,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1029,7 +1025,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1056,13 +1052,13 @@
         <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
         <v>80</v>
@@ -1077,10 +1073,10 @@
         <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="49.5">
@@ -1251,7 +1247,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1297,7 +1293,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1379,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1407,7 +1403,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -1454,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1493,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
